--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.258</v>
+        <v>-0.044</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.317</v>
+        <v>-0.748</v>
       </c>
       <c r="D4" t="n">
-        <v>410.47</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.041</v>
+        <v>-0.027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.113</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>-375.61</v>
+        <v>-66.67</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.683</v>
+        <v>2.795</v>
       </c>
       <c r="C6" t="n">
-        <v>6.784</v>
+        <v>4.677</v>
       </c>
       <c r="D6" t="n">
-        <v>84.2</v>
+        <v>67.33</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.452</v>
+        <v>0.302</v>
       </c>
       <c r="D7" t="n">
-        <v>106.39</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.575</v>
+        <v>10.498</v>
       </c>
       <c r="C8" t="n">
-        <v>14.808</v>
+        <v>14.161</v>
       </c>
       <c r="D8" t="n">
-        <v>1.6</v>
+        <v>34.89</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.746</v>
+        <v>2.526</v>
       </c>
       <c r="C9" t="n">
-        <v>6.851</v>
+        <v>4.095</v>
       </c>
       <c r="D9" t="n">
-        <v>149.49</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.576</v>
+        <v>12.188</v>
       </c>
       <c r="C10" t="n">
-        <v>59.047</v>
+        <v>33.796</v>
       </c>
       <c r="D10" t="n">
-        <v>114.12</v>
+        <v>177.29</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.114</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.381</v>
+        <v>0.176</v>
       </c>
       <c r="D11" t="n">
-        <v>234.21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.879</v>
+        <v>-0.031</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.023</v>
+        <v>-1.859</v>
       </c>
       <c r="D12" t="n">
-        <v>243.91</v>
+        <v>5896.77</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.251</v>
+        <v>3.491</v>
       </c>
       <c r="C13" t="n">
-        <v>7.684</v>
+        <v>5.813</v>
       </c>
       <c r="D13" t="n">
-        <v>46.33</v>
+        <v>66.51000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.731123776662917</v>
+        <v>4.729482662110102</v>
       </c>
       <c r="C4" t="n">
-        <v>4.54516879717509</v>
+        <v>5.022197365760803</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.93</v>
+        <v>6.19</v>
       </c>
       <c r="E4" t="n">
-        <v>1.237000462986397</v>
+        <v>0.8203315644755379</v>
       </c>
       <c r="F4" t="n">
-        <v>1.183079097553593</v>
+        <v>2.478332858799906</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.36</v>
+        <v>202.11</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.591</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.14</v>
+        <v>-72.15000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.063857900939968</v>
+        <v>2.111965095032288</v>
       </c>
       <c r="C6" t="n">
-        <v>4.607001752943499</v>
+        <v>2.153759278260944</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.02</v>
+        <v>1.98</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6234461758274229</v>
+        <v>0.3670136882222775</v>
       </c>
       <c r="F6" t="n">
-        <v>0.454093308641747</v>
+        <v>0.3111834592841766</v>
       </c>
       <c r="G6" t="n">
-        <v>-27.16</v>
+        <v>-15.21</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
